--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/REMISIONES CENTRAL SEPT-2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/REMISIONES CENTRAL SEPT-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\CENTRAL #09  SEPTIEMBRE 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\CENTRAL #09  SEPTIEMBRE 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="COMEDORES INDS RAMIREZ" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
+    <sheet name="COMEDORES INDS RAMIREZ" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -311,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +343,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +370,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -427,6 +455,27 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -784,7 +833,7 @@
   <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J221"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7869,8 +7918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I12"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190:J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14912,9 +14961,498 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="29"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="27">
+        <v>13271</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="20">
+        <v>71.8</v>
+      </c>
+      <c r="F3" s="25">
+        <v>8210.4</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="25">
+        <v>8210.4</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="27">
+        <v>13273</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20">
+        <v>17.02</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1512.8</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1512.8</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28">
+        <v>13286</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="23">
+        <v>10</v>
+      </c>
+      <c r="F5" s="30">
+        <v>800</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="26">
+        <v>800</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="27">
+        <v>13295</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="20">
+        <v>105</v>
+      </c>
+      <c r="F6" s="31">
+        <v>11159.9</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="25">
+        <v>11159.9</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="28">
+        <v>13298</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23">
+        <v>4</v>
+      </c>
+      <c r="F7" s="30">
+        <v>456</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="26">
+        <v>456</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="27">
+        <v>13337</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20">
+        <v>12.15</v>
+      </c>
+      <c r="F8" s="31">
+        <v>717.1</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="25">
+        <v>717.1</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27">
+        <v>13353</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6</v>
+      </c>
+      <c r="F9" s="25">
+        <v>684</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="25">
+        <v>684</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="27">
+        <v>13354</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="20">
+        <v>166.6</v>
+      </c>
+      <c r="F10" s="25">
+        <v>14809.65</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="25">
+        <v>14809.65</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="27">
+        <v>13367</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="20">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3885.2</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3885.2</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="28">
+        <v>13398</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="23">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2505.6999999999998</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2505.6999999999998</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="27">
+        <v>13417</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="20">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1066.4000000000001</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1066.4000000000001</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28">
+        <v>13446</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="23">
+        <v>54.94</v>
+      </c>
+      <c r="F14" s="26">
+        <v>5701.4</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5701.4</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="28">
+        <v>13447</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="26">
+        <v>330</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="26">
+        <v>330</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="27">
+        <v>13470</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F16" s="25">
+        <v>122.4</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="25">
+        <v>122.4</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="28">
+        <v>13471</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="23">
+        <v>4</v>
+      </c>
+      <c r="F17" s="26">
+        <v>560</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="26">
+        <v>560</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="28">
+        <v>13482</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3.9</v>
+      </c>
+      <c r="F18" s="26">
+        <v>975</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="26">
+        <v>975</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/REMISIONES CENTRAL SEPT-2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/REMISIONES CENTRAL SEPT-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="11220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="11220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -476,6 +476,8 @@
     <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7918,13 +7920,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K222"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190:J205"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -7940,7 +7943,7 @@
       <c r="E3" s="7">
         <v>81</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="15">
         <v>6570</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -7972,7 +7975,7 @@
       <c r="E4" s="3">
         <v>1017.2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="16">
         <v>71888.399999999994</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -8004,7 +8007,7 @@
       <c r="E5" s="7">
         <v>500</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>28500</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -8036,7 +8039,7 @@
       <c r="E6" s="7">
         <v>100</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>8200</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -8068,7 +8071,7 @@
       <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="8"/>
@@ -8098,7 +8101,7 @@
       <c r="E8" s="3">
         <v>959.01</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="16">
         <v>75748.62</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -8130,7 +8133,7 @@
       <c r="E9" s="3">
         <v>628.70000000000005</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="16">
         <v>48579.8</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -8162,7 +8165,7 @@
       <c r="E10" s="3">
         <v>570</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="16">
         <v>34050</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -8194,7 +8197,7 @@
       <c r="E11" s="7">
         <v>425</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>27030</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -8226,7 +8229,7 @@
       <c r="E12" s="7">
         <v>473.6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <v>34707.199999999997</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -8258,7 +8261,7 @@
       <c r="E13" s="7">
         <v>3.06</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="15">
         <v>436.68</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -8290,7 +8293,7 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="16">
         <v>280</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -8322,7 +8325,7 @@
       <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="16">
         <v>1500</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -8354,7 +8357,7 @@
       <c r="E16" s="7">
         <v>27</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>3440</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -8386,7 +8389,7 @@
       <c r="E17" s="3">
         <v>8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="16">
         <v>960</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -8418,7 +8421,7 @@
       <c r="E18" s="3">
         <v>12.7</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="16">
         <v>2107</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -8450,7 +8453,7 @@
       <c r="E19" s="7">
         <v>58</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>11414</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -8482,7 +8485,7 @@
       <c r="E20" s="3">
         <v>28.2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="16">
         <v>3636</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -8514,7 +8517,7 @@
       <c r="E21" s="7">
         <v>5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>600</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -8546,7 +8549,7 @@
       <c r="E22" s="3">
         <v>48.8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="16">
         <v>10345.6</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -8578,7 +8581,7 @@
       <c r="E23" s="3">
         <v>116</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="16">
         <v>20845.599999999999</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -8610,7 +8613,7 @@
       <c r="E24" s="7">
         <v>21</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="15">
         <v>1801</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -8642,7 +8645,7 @@
       <c r="E25" s="3">
         <v>30</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="16">
         <v>3850</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -8674,7 +8677,7 @@
       <c r="E26" s="7">
         <v>87.2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="15">
         <v>14062.4</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -8706,7 +8709,7 @@
       <c r="E27" s="3">
         <v>5</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="16">
         <v>600</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -8738,7 +8741,7 @@
       <c r="E28" s="3">
         <v>148.80000000000001</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="16">
         <v>20793.599999999999</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -8770,7 +8773,7 @@
       <c r="E29" s="3">
         <v>57</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="16">
         <v>11624</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -8802,7 +8805,7 @@
       <c r="E30" s="3">
         <v>4</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="16">
         <v>480</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -8834,7 +8837,7 @@
       <c r="E31" s="7">
         <v>70</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <v>6962</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -8866,7 +8869,7 @@
       <c r="E32" s="3">
         <v>44.4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="16">
         <v>7512</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -8898,7 +8901,7 @@
       <c r="E33" s="7">
         <v>5</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="15">
         <v>600</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -8930,7 +8933,7 @@
       <c r="E34" s="3">
         <v>5</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="16">
         <v>600</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -8962,7 +8965,7 @@
       <c r="E35" s="3">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="16">
         <v>960</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -8994,7 +8997,7 @@
       <c r="E36" s="7">
         <v>81.2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="15">
         <v>7891.2</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -9026,7 +9029,7 @@
       <c r="E37" s="7">
         <v>5</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="15">
         <v>600</v>
       </c>
       <c r="G37" s="8" t="s">
@@ -9058,7 +9061,7 @@
       <c r="E38" s="7">
         <v>19.600000000000001</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="15">
         <v>1764</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -9090,7 +9093,7 @@
       <c r="E39" s="7">
         <v>5</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="15">
         <v>600</v>
       </c>
       <c r="G39" s="8" t="s">
@@ -9122,7 +9125,7 @@
       <c r="E40" s="7">
         <v>5</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="15">
         <v>600</v>
       </c>
       <c r="G40" s="8" t="s">
@@ -9154,7 +9157,7 @@
       <c r="E41" s="3">
         <v>5</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="16">
         <v>600</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -9186,7 +9189,7 @@
       <c r="E42" s="7">
         <v>31.2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="15">
         <v>3244</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -9218,7 +9221,7 @@
       <c r="E43" s="3">
         <v>5</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="16">
         <v>600</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -9250,7 +9253,7 @@
       <c r="E44" s="7">
         <v>5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="15">
         <v>600</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -9282,7 +9285,7 @@
       <c r="E45" s="7">
         <v>54</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="15">
         <v>5540</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -9314,7 +9317,7 @@
       <c r="E46" s="7">
         <v>50.5</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="15">
         <v>3624.15</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -9346,7 +9349,7 @@
       <c r="E47" s="7">
         <v>65.8</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="15">
         <v>5572.7</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -9378,7 +9381,7 @@
       <c r="E48" s="7">
         <v>51.94</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="15">
         <v>4378.37</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -9410,7 +9413,7 @@
       <c r="E49" s="3">
         <v>61.7</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="16">
         <v>5107.8999999999996</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -9442,7 +9445,7 @@
       <c r="E50" s="3">
         <v>390</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="16">
         <v>29390</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -9474,7 +9477,7 @@
       <c r="E51" s="3">
         <v>370.8</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="16">
         <v>25566.799999999999</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -9506,7 +9509,7 @@
       <c r="E52" s="7">
         <v>21.18</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="15">
         <v>2813.6</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -9538,7 +9541,7 @@
       <c r="E53" s="7">
         <v>8.5</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="15">
         <v>450</v>
       </c>
       <c r="G53" s="8" t="s">
@@ -9570,7 +9573,7 @@
       <c r="E54" s="7">
         <v>129.5</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="15">
         <v>7770</v>
       </c>
       <c r="G54" s="8" t="s">
@@ -9602,7 +9605,7 @@
       <c r="E55" s="3">
         <v>25</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="16">
         <v>1750</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -9634,7 +9637,7 @@
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="16">
         <v>138</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -9666,7 +9669,7 @@
       <c r="E57" s="7">
         <v>27.25</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="15">
         <v>2787.5</v>
       </c>
       <c r="G57" s="8" t="s">
@@ -9698,7 +9701,7 @@
       <c r="E58" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="15">
         <v>968</v>
       </c>
       <c r="G58" s="8" t="s">
@@ -9730,7 +9733,7 @@
       <c r="E59" s="7">
         <v>8.24</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="15">
         <v>806.7</v>
       </c>
       <c r="G59" s="8" t="s">
@@ -9762,7 +9765,7 @@
       <c r="E60" s="3">
         <v>29.4</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="16">
         <v>2013.2</v>
       </c>
       <c r="G60" s="4" t="s">
@@ -9794,7 +9797,7 @@
       <c r="E61" s="7">
         <v>60.7</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="15">
         <v>5129.3999999999996</v>
       </c>
       <c r="G61" s="8" t="s">
@@ -9826,7 +9829,7 @@
       <c r="E62" s="7">
         <v>17.5</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="15">
         <v>1469</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -9858,7 +9861,7 @@
       <c r="E63" s="7">
         <v>17.350000000000001</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="15">
         <v>1781.3</v>
       </c>
       <c r="G63" s="8" t="s">
@@ -9890,7 +9893,7 @@
       <c r="E64" s="7">
         <v>20.5</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="15">
         <v>2063</v>
       </c>
       <c r="G64" s="8" t="s">
@@ -9922,7 +9925,7 @@
       <c r="E65" s="3">
         <v>49.75</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="16">
         <v>4545</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -9954,7 +9957,7 @@
       <c r="E66" s="3">
         <v>49</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="16">
         <v>3515</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -9986,7 +9989,7 @@
       <c r="E67" s="3">
         <v>29.6</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="16">
         <v>2084.4</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -10018,7 +10021,7 @@
       <c r="E68" s="7">
         <v>12.75</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="15">
         <v>1599.2</v>
       </c>
       <c r="G68" s="8" t="s">
@@ -10050,7 +10053,7 @@
       <c r="E69" s="7">
         <v>16.190000000000001</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="15">
         <v>1031.4000000000001</v>
       </c>
       <c r="G69" s="8" t="s">
@@ -10082,7 +10085,7 @@
       <c r="E70" s="3">
         <v>11</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="16">
         <v>1026</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -10114,7 +10117,7 @@
       <c r="E71" s="3">
         <v>24.14</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="16">
         <v>1845.44</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -10146,7 +10149,7 @@
       <c r="E72" s="7">
         <v>4.5</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="15">
         <v>547</v>
       </c>
       <c r="G72" s="8" t="s">
@@ -10178,7 +10181,7 @@
       <c r="E73" s="3">
         <v>13.03</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="16">
         <v>2029</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -10210,7 +10213,7 @@
       <c r="E74" s="7">
         <v>8.81</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="15">
         <v>898.62</v>
       </c>
       <c r="G74" s="8" t="s">
@@ -10242,7 +10245,7 @@
       <c r="E75" s="3">
         <v>15.3</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="16">
         <v>1031.4000000000001</v>
       </c>
       <c r="G75" s="4" t="s">
@@ -10274,7 +10277,7 @@
       <c r="E76" s="7">
         <v>14.9</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="15">
         <v>2360.52</v>
       </c>
       <c r="G76" s="8" t="s">
@@ -10306,7 +10309,7 @@
       <c r="E77" s="7">
         <v>8.5500000000000007</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="15">
         <v>1550.1</v>
       </c>
       <c r="G77" s="8" t="s">
@@ -10338,7 +10341,7 @@
       <c r="E78" s="7">
         <v>4.95</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="15">
         <v>386.1</v>
       </c>
       <c r="G78" s="8" t="s">
@@ -10370,7 +10373,7 @@
       <c r="E79" s="3">
         <v>20.82</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="16">
         <v>1883.46</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -10402,7 +10405,7 @@
       <c r="E80" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="16">
         <v>642.12</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -10434,7 +10437,7 @@
       <c r="E81" s="7">
         <v>16.79</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="15">
         <v>964.04</v>
       </c>
       <c r="G81" s="8" t="s">
@@ -10466,7 +10469,7 @@
       <c r="E82" s="3">
         <v>14.03</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="16">
         <v>1776.9</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -10498,7 +10501,7 @@
       <c r="E83" s="7">
         <v>14.56</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="15">
         <v>1053.76</v>
       </c>
       <c r="G83" s="8" t="s">
@@ -10530,7 +10533,7 @@
       <c r="E84" s="3">
         <v>9.58</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="16">
         <v>1012.52</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -10562,7 +10565,7 @@
       <c r="E85" s="7">
         <v>15.16</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="15">
         <v>1333.16</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -10594,7 +10597,7 @@
       <c r="E86" s="3">
         <v>23.04</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="16">
         <v>1333.84</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -10626,7 +10629,7 @@
       <c r="E87" s="3">
         <v>11.26</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="16">
         <v>1333.08</v>
       </c>
       <c r="G87" s="4" t="s">
@@ -10658,7 +10661,7 @@
       <c r="E88" s="7">
         <v>0.75</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="15">
         <v>68.81</v>
       </c>
       <c r="G88" s="8" t="s">
@@ -10690,7 +10693,7 @@
       <c r="E89" s="7">
         <v>47.61</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="15">
         <v>3056.5</v>
       </c>
       <c r="G89" s="8" t="s">
@@ -10722,7 +10725,7 @@
       <c r="E90" s="7">
         <v>21.77</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="15">
         <v>1943.04</v>
       </c>
       <c r="G90" s="8" t="s">
@@ -10754,7 +10757,7 @@
       <c r="E91" s="3">
         <v>2.5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="16">
         <v>325</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -10786,7 +10789,7 @@
       <c r="E92" s="7">
         <v>9.51</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="15">
         <v>1621.44</v>
       </c>
       <c r="G92" s="8" t="s">
@@ -10818,7 +10821,7 @@
       <c r="E93" s="7">
         <v>18.940000000000001</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="15">
         <v>1463.12</v>
       </c>
       <c r="G93" s="8" t="s">
@@ -10850,7 +10853,7 @@
       <c r="E94" s="3">
         <v>15.27</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="16">
         <v>2377.08</v>
       </c>
       <c r="G94" s="4" t="s">
@@ -10882,7 +10885,7 @@
       <c r="E95" s="3">
         <v>24.03</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="16">
         <v>2781.22</v>
       </c>
       <c r="G95" s="4" t="s">
@@ -10914,7 +10917,7 @@
       <c r="E96" s="7">
         <v>20.8</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="15">
         <v>1874.18</v>
       </c>
       <c r="G96" s="8" t="s">
@@ -10946,7 +10949,7 @@
       <c r="E97" s="7">
         <v>9</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="15">
         <v>270</v>
       </c>
       <c r="G97" s="8" t="s">
@@ -10978,7 +10981,7 @@
       <c r="E98" s="7">
         <v>4.04</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="15">
         <v>428.52</v>
       </c>
       <c r="G98" s="8" t="s">
@@ -11010,7 +11013,7 @@
       <c r="E99" s="3">
         <v>13.28</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="16">
         <v>753.6</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -11042,7 +11045,7 @@
       <c r="E100" s="7">
         <v>14.32</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="15">
         <v>1804.56</v>
       </c>
       <c r="G100" s="8" t="s">
@@ -11074,7 +11077,7 @@
       <c r="E101" s="3">
         <v>25.32</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="16">
         <v>1907.52</v>
       </c>
       <c r="G101" s="4" t="s">
@@ -11106,7 +11109,7 @@
       <c r="E102" s="7">
         <v>10.02</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="15">
         <v>938.88</v>
       </c>
       <c r="G102" s="8" t="s">
@@ -11138,7 +11141,7 @@
       <c r="E103" s="3">
         <v>13.3</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="16">
         <v>1192.8</v>
       </c>
       <c r="G103" s="4" t="s">
@@ -11170,7 +11173,7 @@
       <c r="E104" s="7">
         <v>32.729999999999997</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="15">
         <v>1386.08</v>
       </c>
       <c r="G104" s="8" t="s">
@@ -11202,7 +11205,7 @@
       <c r="E105" s="3">
         <v>43</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="34">
         <v>645</v>
       </c>
       <c r="G105" s="4" t="s">
@@ -11234,7 +11237,7 @@
       <c r="E106" s="3">
         <v>28</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="34">
         <v>500</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -11266,7 +11269,7 @@
       <c r="E107" s="7">
         <v>735</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="15">
         <v>11025</v>
       </c>
       <c r="G107" s="8" t="s">
@@ -11298,7 +11301,7 @@
       <c r="E108" s="7">
         <v>16</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="35">
         <v>320</v>
       </c>
       <c r="G108" s="8" t="s">
@@ -11330,7 +11333,7 @@
       <c r="E109" s="3">
         <v>24</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="34">
         <v>440</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -11362,7 +11365,7 @@
       <c r="E110" s="7">
         <v>40</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="15">
         <v>680</v>
       </c>
       <c r="G110" s="8" t="s">
@@ -11394,7 +11397,7 @@
       <c r="E111" s="3">
         <v>24</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="16">
         <v>440</v>
       </c>
       <c r="G111" s="4" t="s">
@@ -11426,7 +11429,7 @@
       <c r="E112" s="3">
         <v>69</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="16">
         <v>8280</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -11458,7 +11461,7 @@
       <c r="E113" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="16">
         <v>2534</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -11490,7 +11493,7 @@
       <c r="E114" s="7">
         <v>9.19</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="15">
         <v>796.72</v>
       </c>
       <c r="G114" s="8" t="s">
@@ -11522,7 +11525,7 @@
       <c r="E115" s="7">
         <v>18.75</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="15">
         <v>2287.5</v>
       </c>
       <c r="G115" s="8" t="s">
@@ -11554,7 +11557,7 @@
       <c r="E116" s="3">
         <v>123.8</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="16">
         <v>371.4</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -11586,7 +11589,7 @@
       <c r="E117" s="7">
         <v>41.6</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="15">
         <v>124.8</v>
       </c>
       <c r="G117" s="8" t="s">
@@ -11618,7 +11621,7 @@
       <c r="E118" s="3">
         <v>97.4</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="16">
         <v>292.2</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -11650,7 +11653,7 @@
       <c r="E119" s="3">
         <v>7.5</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="16">
         <v>1050</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -11682,7 +11685,7 @@
       <c r="E120" s="7">
         <v>4.5</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="15">
         <v>630</v>
       </c>
       <c r="G120" s="8" t="s">
@@ -11714,7 +11717,7 @@
       <c r="E121" s="3">
         <v>30</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="16">
         <v>300</v>
       </c>
       <c r="G121" s="4" t="s">
@@ -11746,7 +11749,7 @@
       <c r="E122" s="7">
         <v>80</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="15">
         <v>10400</v>
       </c>
       <c r="G122" s="8" t="s">
@@ -11778,7 +11781,7 @@
       <c r="E123" s="3">
         <v>13</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="16">
         <v>1222</v>
       </c>
       <c r="G123" s="4" t="s">
@@ -11810,7 +11813,7 @@
       <c r="E124" s="7">
         <v>8</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="15">
         <v>736</v>
       </c>
       <c r="G124" s="8" t="s">
@@ -11842,7 +11845,7 @@
       <c r="E125" s="3">
         <v>3</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="16">
         <v>246</v>
       </c>
       <c r="G125" s="4" t="s">
@@ -11874,7 +11877,7 @@
       <c r="E126" s="3">
         <v>18.25</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="16">
         <v>2226.5</v>
       </c>
       <c r="G126" s="4" t="s">
@@ -11906,7 +11909,7 @@
       <c r="E127" s="7">
         <v>114.8</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="15">
         <v>12168.8</v>
       </c>
       <c r="G127" s="8" t="s">
@@ -11938,7 +11941,7 @@
       <c r="E128" s="3">
         <v>19.5</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="16">
         <v>2418</v>
       </c>
       <c r="G128" s="4" t="s">
@@ -11970,7 +11973,7 @@
       <c r="E129" s="7">
         <v>8</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="15">
         <v>736</v>
       </c>
       <c r="G129" s="8" t="s">
@@ -12002,7 +12005,7 @@
       <c r="E130" s="3">
         <v>10</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="16">
         <v>1190</v>
       </c>
       <c r="G130" s="4" t="s">
@@ -12034,7 +12037,7 @@
       <c r="E131" s="7">
         <v>6</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="15">
         <v>774</v>
       </c>
       <c r="G131" s="8" t="s">
@@ -12066,7 +12069,7 @@
       <c r="E132" s="3">
         <v>5</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="16">
         <v>700</v>
       </c>
       <c r="G132" s="4" t="s">
@@ -12098,7 +12101,7 @@
       <c r="E133" s="7">
         <v>138.55000000000001</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="15">
         <v>440.4</v>
       </c>
       <c r="G133" s="8" t="s">
@@ -12130,7 +12133,7 @@
       <c r="E134" s="7">
         <v>10</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="15">
         <v>1150</v>
       </c>
       <c r="G134" s="8" t="s">
@@ -12162,7 +12165,7 @@
       <c r="E135" s="3">
         <v>20</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="16">
         <v>2760</v>
       </c>
       <c r="G135" s="4" t="s">
@@ -12194,7 +12197,7 @@
       <c r="E136" s="7">
         <v>28.6</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="15">
         <v>85.8</v>
       </c>
       <c r="G136" s="8" t="s">
@@ -12226,7 +12229,7 @@
       <c r="E137" s="7">
         <v>45</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="15">
         <v>4770</v>
       </c>
       <c r="G137" s="8" t="s">
@@ -12258,7 +12261,7 @@
       <c r="E138" s="7">
         <v>7.2</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="15">
         <v>86.4</v>
       </c>
       <c r="G138" s="8" t="s">
@@ -12290,7 +12293,7 @@
       <c r="E139" s="7">
         <v>85.4</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="15">
         <v>256.2</v>
       </c>
       <c r="G139" s="8" t="s">
@@ -12322,7 +12325,7 @@
       <c r="E140" s="7">
         <v>8</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="15">
         <v>720</v>
       </c>
       <c r="G140" s="8" t="s">
@@ -12354,7 +12357,7 @@
       <c r="E141" s="7">
         <v>8</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="15">
         <v>1048</v>
       </c>
       <c r="G141" s="8" t="s">
@@ -12386,7 +12389,7 @@
       <c r="E142" s="7">
         <v>22</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="15">
         <v>2056</v>
       </c>
       <c r="G142" s="8" t="s">
@@ -12418,7 +12421,7 @@
       <c r="E143" s="3">
         <v>18.3</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="16">
         <v>2269.1999999999998</v>
       </c>
       <c r="G143" s="4" t="s">
@@ -12450,7 +12453,7 @@
       <c r="E144" s="7">
         <v>7</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="15">
         <v>1042</v>
       </c>
       <c r="G144" s="8" t="s">
@@ -12482,7 +12485,7 @@
       <c r="E145" s="7">
         <v>16</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="15">
         <v>1488</v>
       </c>
       <c r="G145" s="8" t="s">
@@ -12514,7 +12517,7 @@
       <c r="E146" s="7">
         <v>63</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="15">
         <v>189</v>
       </c>
       <c r="G146" s="8" t="s">
@@ -12546,7 +12549,7 @@
       <c r="E147" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="15">
         <v>2492.4</v>
       </c>
       <c r="G147" s="8" t="s">
@@ -12578,7 +12581,7 @@
       <c r="E148" s="7">
         <v>6</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="15">
         <v>786</v>
       </c>
       <c r="G148" s="8" t="s">
@@ -12610,7 +12613,7 @@
       <c r="E149" s="3">
         <v>100</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="16">
         <v>9600</v>
       </c>
       <c r="G149" s="4" t="s">
@@ -12642,7 +12645,7 @@
       <c r="E150" s="3">
         <v>64</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="16">
         <v>192</v>
       </c>
       <c r="G150" s="4" t="s">
@@ -12674,7 +12677,7 @@
       <c r="E151" s="3">
         <v>21.6</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="16">
         <v>2678.4</v>
       </c>
       <c r="G151" s="4" t="s">
@@ -12706,7 +12709,7 @@
       <c r="E152" s="7">
         <v>2</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="15">
         <v>300</v>
       </c>
       <c r="G152" s="8" t="s">
@@ -12738,7 +12741,7 @@
       <c r="E153" s="3">
         <v>146</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="16">
         <v>438</v>
       </c>
       <c r="G153" s="4" t="s">
@@ -12770,7 +12773,7 @@
       <c r="E154" s="3">
         <v>12</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="16">
         <v>1080</v>
       </c>
       <c r="G154" s="4" t="s">
@@ -12802,7 +12805,7 @@
       <c r="E155" s="7">
         <v>15.05</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="15">
         <v>1806</v>
       </c>
       <c r="G155" s="8" t="s">
@@ -12834,7 +12837,7 @@
       <c r="E156" s="3">
         <v>7</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="16">
         <v>630</v>
       </c>
       <c r="G156" s="4" t="s">
@@ -12866,7 +12869,7 @@
       <c r="E157" s="7">
         <v>72.599999999999994</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="15">
         <v>217.8</v>
       </c>
       <c r="G157" s="8" t="s">
@@ -12898,7 +12901,7 @@
       <c r="E158" s="7">
         <v>2</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="15">
         <v>300</v>
       </c>
       <c r="G158" s="8" t="s">
@@ -12930,7 +12933,7 @@
       <c r="E159" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="16">
         <v>2492.4</v>
       </c>
       <c r="G159" s="4" t="s">
@@ -12962,7 +12965,7 @@
       <c r="E160" s="3">
         <v>36.299999999999997</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="16">
         <v>108.9</v>
       </c>
       <c r="G160" s="4" t="s">
@@ -12994,7 +12997,7 @@
       <c r="E161" s="3">
         <v>8</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="16">
         <v>1048</v>
       </c>
       <c r="G161" s="4" t="s">
@@ -13026,7 +13029,7 @@
       <c r="E162" s="3">
         <v>94.9</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="16">
         <v>6453.2</v>
       </c>
       <c r="G162" s="4" t="s">
@@ -13058,7 +13061,7 @@
       <c r="E163" s="7">
         <v>20</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="15">
         <v>2480</v>
       </c>
       <c r="G163" s="8" t="s">
@@ -13090,7 +13093,7 @@
       <c r="E164" s="3">
         <v>2</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="16">
         <v>300</v>
       </c>
       <c r="G164" s="4" t="s">
@@ -13122,7 +13125,7 @@
       <c r="E165" s="3">
         <v>34.130000000000003</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="16">
         <v>218.88</v>
       </c>
       <c r="G165" s="4" t="s">
@@ -13154,7 +13157,7 @@
       <c r="E166" s="3">
         <v>0</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="16">
         <v>0</v>
       </c>
       <c r="G166" s="4"/>
@@ -13184,7 +13187,7 @@
       <c r="E167" s="7">
         <v>8</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="15">
         <v>1048</v>
       </c>
       <c r="G167" s="8" t="s">
@@ -13216,7 +13219,7 @@
       <c r="E168" s="3">
         <v>20.5</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="16">
         <v>2542</v>
       </c>
       <c r="G168" s="4" t="s">
@@ -13248,7 +13251,7 @@
       <c r="E169" s="7">
         <v>14.05</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="15">
         <v>1686</v>
       </c>
       <c r="G169" s="8" t="s">
@@ -13280,7 +13283,7 @@
       <c r="E170" s="3">
         <v>6.1</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="16">
         <v>811.3</v>
       </c>
       <c r="G170" s="4" t="s">
@@ -13312,7 +13315,7 @@
       <c r="E171" s="7">
         <v>114.8</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="15">
         <v>12857.6</v>
       </c>
       <c r="G171" s="8" t="s">
@@ -13344,7 +13347,7 @@
       <c r="E172" s="7">
         <v>112</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="15">
         <v>336</v>
       </c>
       <c r="G172" s="8" t="s">
@@ -13376,7 +13379,7 @@
       <c r="E173" s="3">
         <v>18.7</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="16">
         <v>2356.1999999999998</v>
       </c>
       <c r="G173" s="4" t="s">
@@ -13408,7 +13411,7 @@
       <c r="E174" s="3">
         <v>33.4</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="16">
         <v>100.2</v>
       </c>
       <c r="G174" s="4" t="s">
@@ -13440,7 +13443,7 @@
       <c r="E175" s="3">
         <v>63.4</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="16">
         <v>7354.4</v>
       </c>
       <c r="G175" s="4" t="s">
@@ -13472,7 +13475,7 @@
       <c r="E176" s="7">
         <v>60</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="15">
         <v>6960</v>
       </c>
       <c r="G176" s="8" t="s">
@@ -13504,7 +13507,7 @@
       <c r="E177" s="3">
         <v>296</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="16">
         <v>28091.8</v>
       </c>
       <c r="G177" s="4"/>
@@ -13534,7 +13537,7 @@
       <c r="E178" s="7">
         <v>129.93</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="15">
         <v>10753.14</v>
       </c>
       <c r="G178" s="8" t="s">
@@ -13566,7 +13569,7 @@
       <c r="E179" s="3">
         <v>94.16</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="16">
         <v>8367.84</v>
       </c>
       <c r="G179" s="4" t="s">
@@ -13598,7 +13601,7 @@
       <c r="E180" s="3">
         <v>187</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="16">
         <v>17554</v>
       </c>
       <c r="G180" s="4" t="s">
@@ -13630,7 +13633,7 @@
       <c r="E181" s="7">
         <v>0.9</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="15">
         <v>81</v>
       </c>
       <c r="G181" s="8" t="s">
@@ -13662,7 +13665,7 @@
       <c r="E182" s="7">
         <v>73.25</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="15">
         <v>7097.2</v>
       </c>
       <c r="G182" s="8" t="s">
@@ -13694,7 +13697,7 @@
       <c r="E183" s="3">
         <v>15.8</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="16">
         <v>2528</v>
       </c>
       <c r="G183" s="4" t="s">
@@ -13726,7 +13729,7 @@
       <c r="E184" s="3">
         <v>0</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="16">
         <v>0</v>
       </c>
       <c r="G184" s="4"/>
@@ -13756,7 +13759,7 @@
       <c r="E185" s="3">
         <v>103.95</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="16">
         <v>8270</v>
       </c>
       <c r="G185" s="4" t="s">
@@ -13788,7 +13791,7 @@
       <c r="E186" s="3">
         <v>25.5</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="16">
         <v>4080</v>
       </c>
       <c r="G186" s="4" t="s">
@@ -13820,7 +13823,7 @@
       <c r="E187" s="3">
         <v>0</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="16">
         <v>0</v>
       </c>
       <c r="G187" s="4"/>
@@ -13850,7 +13853,7 @@
       <c r="E188" s="3">
         <v>180.74</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="16">
         <v>14245.73</v>
       </c>
       <c r="G188" s="4" t="s">
@@ -13882,7 +13885,7 @@
       <c r="E189" s="3">
         <v>80.5</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="16">
         <v>6480</v>
       </c>
       <c r="G189" s="4" t="s">
@@ -13914,7 +13917,7 @@
       <c r="E190" s="3">
         <v>71.8</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="16">
         <v>8210.4</v>
       </c>
       <c r="G190" s="4" t="s">
@@ -13946,7 +13949,7 @@
       <c r="E191" s="3">
         <v>17.02</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="16">
         <v>1512.8</v>
       </c>
       <c r="G191" s="4" t="s">
@@ -13978,7 +13981,7 @@
       <c r="E192" s="7">
         <v>10</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192" s="15">
         <v>800</v>
       </c>
       <c r="G192" s="8" t="s">
@@ -14010,7 +14013,7 @@
       <c r="E193" s="3">
         <v>105</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="16">
         <v>11159.9</v>
       </c>
       <c r="G193" s="4" t="s">
@@ -14042,7 +14045,7 @@
       <c r="E194" s="7">
         <v>4</v>
       </c>
-      <c r="F194" s="7">
+      <c r="F194" s="15">
         <v>456</v>
       </c>
       <c r="G194" s="8" t="s">
@@ -14074,7 +14077,7 @@
       <c r="E195" s="3">
         <v>12.15</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="16">
         <v>717.1</v>
       </c>
       <c r="G195" s="4" t="s">
@@ -14106,7 +14109,7 @@
       <c r="E196" s="3">
         <v>6</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="16">
         <v>684</v>
       </c>
       <c r="G196" s="4" t="s">
@@ -14138,7 +14141,7 @@
       <c r="E197" s="3">
         <v>166.6</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="16">
         <v>14809.65</v>
       </c>
       <c r="G197" s="4" t="s">
@@ -14170,7 +14173,7 @@
       <c r="E198" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="16">
         <v>3885.2</v>
       </c>
       <c r="G198" s="4" t="s">
@@ -14202,7 +14205,7 @@
       <c r="E199" s="7">
         <v>19.850000000000001</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="15">
         <v>2505.6999999999998</v>
       </c>
       <c r="G199" s="8" t="s">
@@ -14234,7 +14237,7 @@
       <c r="E200" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="16">
         <v>1066.4000000000001</v>
       </c>
       <c r="G200" s="4" t="s">
@@ -14266,7 +14269,7 @@
       <c r="E201" s="7">
         <v>54.94</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="15">
         <v>5701.4</v>
       </c>
       <c r="G201" s="8" t="s">
@@ -14298,7 +14301,7 @@
       <c r="E202" s="7">
         <v>1.5</v>
       </c>
-      <c r="F202" s="7">
+      <c r="F202" s="15">
         <v>330</v>
       </c>
       <c r="G202" s="8" t="s">
@@ -14330,7 +14333,7 @@
       <c r="E203" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="16">
         <v>122.4</v>
       </c>
       <c r="G203" s="4" t="s">
@@ -14362,7 +14365,7 @@
       <c r="E204" s="7">
         <v>4</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="15">
         <v>560</v>
       </c>
       <c r="G204" s="8" t="s">
@@ -14394,7 +14397,7 @@
       <c r="E205" s="7">
         <v>3.9</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="15">
         <v>975</v>
       </c>
       <c r="G205" s="8" t="s">
@@ -14426,7 +14429,7 @@
       <c r="E206" s="3">
         <v>0</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="16">
         <v>0</v>
       </c>
       <c r="G206" s="4"/>
@@ -14456,7 +14459,7 @@
       <c r="E207" s="7">
         <v>199</v>
       </c>
-      <c r="F207" s="7">
+      <c r="F207" s="15">
         <v>19900</v>
       </c>
       <c r="G207" s="8" t="s">
@@ -14488,7 +14491,7 @@
       <c r="E208" s="7">
         <v>30</v>
       </c>
-      <c r="F208" s="7">
+      <c r="F208" s="15">
         <v>2900</v>
       </c>
       <c r="G208" s="8" t="s">
@@ -14520,7 +14523,7 @@
       <c r="E209" s="7">
         <v>5</v>
       </c>
-      <c r="F209" s="7">
+      <c r="F209" s="15">
         <v>600</v>
       </c>
       <c r="G209" s="8" t="s">
@@ -14552,7 +14555,7 @@
       <c r="E210" s="3">
         <v>166.5</v>
       </c>
-      <c r="F210" s="3">
+      <c r="F210" s="16">
         <v>15817.5</v>
       </c>
       <c r="G210" s="4" t="s">
@@ -14584,7 +14587,7 @@
       <c r="E211" s="3">
         <v>210.6</v>
       </c>
-      <c r="F211" s="3">
+      <c r="F211" s="16">
         <v>21902.400000000001</v>
       </c>
       <c r="G211" s="4" t="s">
@@ -14616,7 +14619,7 @@
       <c r="E212" s="7">
         <v>5</v>
       </c>
-      <c r="F212" s="7">
+      <c r="F212" s="15">
         <v>600</v>
       </c>
       <c r="G212" s="8" t="s">
@@ -14648,7 +14651,7 @@
       <c r="E213" s="3">
         <v>0</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="16">
         <v>0</v>
       </c>
       <c r="G213" s="4"/>
@@ -14678,7 +14681,7 @@
       <c r="E214" s="3">
         <v>195.6</v>
       </c>
-      <c r="F214" s="3">
+      <c r="F214" s="16">
         <v>21516</v>
       </c>
       <c r="G214" s="4"/>
@@ -14708,7 +14711,7 @@
       <c r="E215" s="3">
         <v>5</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="16">
         <v>600</v>
       </c>
       <c r="G215" s="4" t="s">
@@ -14740,7 +14743,7 @@
       <c r="E216" s="7">
         <v>21.05</v>
       </c>
-      <c r="F216" s="7">
+      <c r="F216" s="15">
         <v>1906.5</v>
       </c>
       <c r="G216" s="8" t="s">
@@ -14772,7 +14775,7 @@
       <c r="E217" s="7">
         <v>55.75</v>
       </c>
-      <c r="F217" s="7">
+      <c r="F217" s="15">
         <v>4907.3999999999996</v>
       </c>
       <c r="G217" s="8" t="s">
@@ -14804,7 +14807,7 @@
       <c r="E218" s="7">
         <v>26.3</v>
       </c>
-      <c r="F218" s="7">
+      <c r="F218" s="15">
         <v>2185</v>
       </c>
       <c r="G218" s="8" t="s">
@@ -14836,7 +14839,7 @@
       <c r="E219" s="7">
         <v>31.85</v>
       </c>
-      <c r="F219" s="7">
+      <c r="F219" s="15">
         <v>2633.5</v>
       </c>
       <c r="G219" s="8" t="s">
@@ -14868,7 +14871,7 @@
       <c r="E220" s="3">
         <v>20</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F220" s="16">
         <v>1800</v>
       </c>
       <c r="G220" s="4" t="s">
@@ -14900,7 +14903,7 @@
       <c r="E221" s="3">
         <v>10.14</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="16">
         <v>912.6</v>
       </c>
       <c r="G221" s="4" t="s">
@@ -14932,7 +14935,7 @@
       <c r="E222" s="3">
         <v>600</v>
       </c>
-      <c r="F222" s="3">
+      <c r="F222" s="16">
         <v>35400</v>
       </c>
       <c r="G222" s="4" t="s">
@@ -14956,6 +14959,7 @@
     <sortCondition ref="D3:D222"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14963,7 +14967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
